--- a/Speed_second_run_calc.xlsx
+++ b/Speed_second_run_calc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E50656-A727-4E2E-9D35-85B5C65D632A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F24D10-9EED-4155-994D-3946CF2E8B07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="7470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76038,6 +76038,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1">
@@ -76455,461 +76460,461 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>74.715999999999994</v>
       </c>
-      <c r="B8">
-        <v>74</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="1">
+        <v>74</v>
+      </c>
+      <c r="C8" s="1">
         <v>2.2143495658996524</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>73</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>266.90600000000001</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>267</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1.5129983476527669</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>264</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>236.23400000000001</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>236</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>3.081759886817931</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>233</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>66.432000000000002</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>66</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>2.1594851238200277</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>65</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>260.63600000000002</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>260</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>4.1004272948072042</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>256</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>231.815</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>231</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>3.9568642888024397</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>229</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>76.063000000000002</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>76</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>2.526861887796795</v>
       </c>
-      <c r="D14">
-        <v>74</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="1">
+        <v>74</v>
+      </c>
+      <c r="E14" s="1">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>226.756</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>226</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>2.6085367545810145</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>224</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>163.369</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>163</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>3.6117639734622653</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>161</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>73.965999999999994</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>73</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>2.5575073802435182</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>72</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>266.25400000000002</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>266</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>4.0884574108091281</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>263</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>0.38740369999999968</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>0.38555</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>1.0192285136808154E-2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>0.3669</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>0.48770000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>30.992000000000001</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>30</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>1.5191892574659707</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>29</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>236.35300000000001</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>236</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>4.0055450315781336</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>232</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>84.96</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>84</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>2.2597344976788802</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>83</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>277.464</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>277</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>4.5029661335612863</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>273</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>248.49600000000001</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>248</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>4.4070380075510887</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>244</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>14597.557269999965</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>14521.564599999649</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>228.27971765761865</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>14342.3266999998</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>15254.21</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>13166.170939999916</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>13155.981699999698</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>31.021827461453451</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>13118.699499999801</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>13239.8873000001</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>236.77167640000613</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>236.479200000303</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>1.0028872609644754</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>234.97820000011399</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>243.49419999998599</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>40.408338500016718</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>40.158949999749851</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>1.136760149214018</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>39.464600000428597</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>49.945299999308098</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>3355.0234361999828</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>3352.3943999998601</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>11.107467271686122</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>3334.9832000003498</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>3410.8859999996598</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>8622.6969589998862</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>8613.3275000001959</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>37.414063696678575</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>8557.2732999989894</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>8795.8880999994999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>83.087772099990602</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>83.006700000623795</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>0.34317319182195993</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>82.446799999161101</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>85.861300000033197</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>3.6848250000093681</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>3.6221499995008251</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>0.44220118245470785</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>3.4870000017690401</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>11.2139000011666</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>33.716767199992312</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>33.683399999063056</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>0.25727466736310767</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>33.004800001435797</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>35.659399998621602</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>4.6194036000142651</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>4.6125500002744904</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>4.8011084626437266E-2</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>4.5518999995692804</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>4.8172000006161397</v>
       </c>
     </row>

--- a/Speed_second_run_calc.xlsx
+++ b/Speed_second_run_calc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F24D10-9EED-4155-994D-3946CF2E8B07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F240501-6EC9-4252-A91B-2CDC5872EB6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="7470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="7470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -29,25 +29,16 @@
     <t>adopt-imaging-single</t>
   </si>
   <si>
-    <t>adopt-plain</t>
-  </si>
-  <si>
     <t>amazoncorretto-imaging-parallel</t>
   </si>
   <si>
     <t>amazoncorretto-imaging-single</t>
   </si>
   <si>
-    <t>amazoncorretto-plain</t>
-  </si>
-  <si>
     <t>graaljdk-imaging-parallel</t>
   </si>
   <si>
     <t>graaljdk-imaging-single</t>
-  </si>
-  <si>
-    <t>graaljdk-plain</t>
   </si>
   <si>
     <t>openjdk-imaging-parallel</t>
@@ -59,16 +50,10 @@
     <t>openjdk-openimaj</t>
   </si>
   <si>
-    <t>openjdk-plain</t>
-  </si>
-  <si>
     <t>zulu-imaging-parallel</t>
   </si>
   <si>
     <t>zulu-imaging-single</t>
-  </si>
-  <si>
-    <t>zulu-plain</t>
   </si>
   <si>
     <t>python-pure-simple</t>
@@ -117,6 +102,21 @@
   </si>
   <si>
     <t>Median</t>
+  </si>
+  <si>
+    <t>adopt-pure</t>
+  </si>
+  <si>
+    <t>amazoncorretto-pure</t>
+  </si>
+  <si>
+    <t>graaljdk-pure</t>
+  </si>
+  <si>
+    <t>openjdk-pure</t>
+  </si>
+  <si>
+    <t>zulu-pure</t>
   </si>
 </sst>
 </file>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1007"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AB6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -481,84 +481,84 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AB1" t="s">
         <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1">
         <f>AVERAGE(B7:B1006)</f>
@@ -671,7 +671,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <f>MEDIAN(B7:B1006)</f>
@@ -784,7 +784,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <f>_xlfn.STDEV.P(B7:B1006)</f>
@@ -897,7 +897,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <f>MIN(B7:B1006)</f>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <f>MAX(B7:B1006)</f>
@@ -76033,7 +76033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6387BF3-8B05-4C97-B3C1-12BCB3C0DC78}">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:E34"/>
     </sheetView>
   </sheetViews>
